--- a/TestData/demosheet.xlsx
+++ b/TestData/demosheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>URL</t>
   </si>
@@ -30,6 +30,9 @@
   <si>
     <t>https://www.Google.com</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
@@ -37,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -978,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -999,6 +1002,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
